--- a/iselUssSyncV2/OutputWSLorientation/20220524_1428_D50L474W30Q26.1U0.45H73.8G2_S3_DATA.xlsx
+++ b/iselUssSyncV2/OutputWSLorientation/20220524_1428_D50L474W30Q26.1U0.45H73.8G2_S3_DATA.xlsx
@@ -344,10 +344,10 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="N2" s="0">
-        <v>0.023699999999999999</v>
+        <v>0.013550436903969579</v>
       </c>
       <c r="O2" s="0">
-        <v>0.40693836871176597</v>
+        <v>0.23266635818705034</v>
       </c>
       <c r="P2" s="0">
         <v>254.64429000000007</v>
@@ -356,10 +356,10 @@
         <v>2.4980604849000012</v>
       </c>
       <c r="R2" s="0">
-        <v>1.0496463430064562</v>
+        <v>1.8358535968656071</v>
       </c>
       <c r="S2" s="0">
-        <v>0.3691838144516536</v>
+        <v>1.0809522828872411</v>
       </c>
       <c r="T2" s="0">
         <v>0.048097142460182943</v>
@@ -383,16 +383,16 @@
         <v>210000</v>
       </c>
       <c r="AA2" s="0">
-        <v>2.3799068148467182</v>
+        <v>1.360707895861083</v>
       </c>
       <c r="AB2" s="0">
-        <v>6.7664409627771862</v>
+        <v>2.3109812749806506</v>
       </c>
       <c r="AC2" s="0">
-        <v>3.2416307196871821</v>
+        <v>1.8533971532949645</v>
       </c>
       <c r="AD2" s="0">
-        <v>3.4059541491093643</v>
+        <v>1.7029770745546822</v>
       </c>
       <c r="AE2" s="0">
         <v>30</v>
@@ -401,7 +401,7 @@
         <v>33</v>
       </c>
       <c r="AG2" s="0">
-        <v>10.008071682464369</v>
+        <v>4.1643784282756151</v>
       </c>
     </row>
   </sheetData>
